--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\yubi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E04C3ED-7E9A-4919-9F17-24768823DEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6B4F63-5847-420E-81D3-A4F737460641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="5088" windowWidth="23040" windowHeight="12204" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="3360" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>3号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8"/>
@@ -500,6 +536,78 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
